--- a/urbs_intertemporal_2050/2050.xlsx
+++ b/urbs_intertemporal_2050/2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C9ACF3-796A-4347-A0D5-2B57D4A5E561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351CB341-E9A3-4BB6-A362-37C7A0ACFBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7545" windowWidth="16440" windowHeight="28440" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -360,13 +360,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1277,7 +1278,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1426,6 +1427,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="363">
@@ -1793,16 +1797,7 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <border>
         <top style="thin">
@@ -2751,7 +2746,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2773,7 +2768,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3009,8 +3004,8 @@
       <c r="C6" s="20">
         <v>0</v>
       </c>
-      <c r="D6" s="55">
-        <v>53560</v>
+      <c r="D6" s="65">
+        <v>999999</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>26</v>
@@ -3050,8 +3045,8 @@
       <c r="C7" s="20">
         <v>0</v>
       </c>
-      <c r="D7" s="55">
-        <v>43590</v>
+      <c r="D7" s="65">
+        <v>999999</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>26</v>
@@ -3091,8 +3086,8 @@
       <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="D8" s="55">
-        <v>188900</v>
+      <c r="D8" s="65">
+        <v>999999</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>26</v>
@@ -3330,32 +3325,32 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A2:A13">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C3 E2:F3 A4:F6">
-    <cfRule type="expression" dxfId="14" priority="10">
+  <conditionalFormatting sqref="A2:C3 E2:F3 A4:F5 A6:C6 E6:F6">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A14:XFD1048576">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B13">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4031,7 +4026,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D19">
+  <conditionalFormatting sqref="D19 D17">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
